--- a/Data Files/Members_Payment_Data.xlsx
+++ b/Data Files/Members_Payment_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\davidho\Katalon Studio\Start\Data Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{988A3F76-E971-48A5-A79B-7A9260E8D84F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F30E0FC3-C195-4412-BCE6-17290E0A01E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Account_ID</t>
   </si>
@@ -33,9 +33,6 @@
     <t>Payment_Description</t>
   </si>
   <si>
-    <t>AutomationTesting Activity</t>
-  </si>
-  <si>
     <t>Invoice_Reference</t>
   </si>
   <si>
@@ -61,19 +58,83 @@
   </si>
   <si>
     <t>Email</t>
+  </si>
+  <si>
+    <t>Building 2000, Lakeside, North Harbour</t>
+  </si>
+  <si>
+    <t>PO6 3EN</t>
+  </si>
+  <si>
+    <t>01243 601246</t>
+  </si>
+  <si>
+    <t>Automation Testing Activity</t>
+  </si>
+  <si>
+    <t>Software-Auto-Testing@checkatrade.com</t>
+  </si>
+  <si>
+    <t>Card_Number</t>
+  </si>
+  <si>
+    <t>Expiry_Date_MM</t>
+  </si>
+  <si>
+    <t>Expiry_Date_YYYY</t>
+  </si>
+  <si>
+    <t>SOLO_Expiry_Date_MM</t>
+  </si>
+  <si>
+    <t>SOLO_Expiry_Date_YYYY</t>
+  </si>
+  <si>
+    <t>Card_Issue</t>
+  </si>
+  <si>
+    <t>4929 0000 0000 6</t>
+  </si>
+  <si>
+    <t>Card_Verification_Code</t>
+  </si>
+  <si>
+    <t>**** **** **** 0006</t>
+  </si>
+  <si>
+    <t>Card_Mask</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF75787B"/>
+      <name val="Foco"/>
     </font>
   </fonts>
   <fills count="2">
@@ -93,16 +154,25 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -381,26 +451,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:R3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="19.7109375" customWidth="1"/>
     <col min="2" max="2" width="27.140625" customWidth="1"/>
     <col min="3" max="5" width="23.140625" customWidth="1"/>
     <col min="6" max="6" width="26.5703125" customWidth="1"/>
-    <col min="7" max="7" width="26.85546875" customWidth="1"/>
+    <col min="7" max="7" width="40.140625" customWidth="1"/>
     <col min="8" max="8" width="23.140625" customWidth="1"/>
-    <col min="9" max="9" width="29.42578125" customWidth="1"/>
+    <col min="9" max="9" width="16.140625" customWidth="1"/>
     <col min="10" max="10" width="27.42578125" customWidth="1"/>
-    <col min="11" max="11" width="23" customWidth="1"/>
+    <col min="11" max="12" width="23" customWidth="1"/>
+    <col min="13" max="13" width="15.42578125" customWidth="1"/>
+    <col min="14" max="14" width="17.42578125" customWidth="1"/>
+    <col min="15" max="15" width="22.42578125" customWidth="1"/>
+    <col min="16" max="16" width="25.5703125" customWidth="1"/>
+    <col min="17" max="17" width="15.5703125" customWidth="1"/>
+    <col min="18" max="18" width="24.140625" customWidth="1"/>
+    <col min="19" max="19" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -408,36 +485,60 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>8</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>9</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>10</v>
       </c>
-      <c r="J1" t="s">
-        <v>11</v>
+      <c r="K1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>21</v>
+      </c>
+      <c r="R1" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" s="1" customFormat="1" ht="15.75">
       <c r="A2" s="1">
         <v>106147701</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C2" s="1">
         <v>218630</v>
@@ -449,10 +550,44 @@
         <v>50</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" s="1">
+        <v>12</v>
+      </c>
+      <c r="N2" s="1">
+        <v>2023</v>
+      </c>
+      <c r="R2" s="1">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
+      <c r="G3" s="2"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="J2" r:id="rId1" xr:uid="{966902DC-B63A-4C97-9FA4-9C4B209FE628}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
--- a/Data Files/Members_Payment_Data.xlsx
+++ b/Data Files/Members_Payment_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\davidho\Katalon Studio\Start\Data Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F30E0FC3-C195-4412-BCE6-17290E0A01E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A4B4752-745E-4E6F-8071-091D10C822F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -453,8 +453,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -544,10 +544,10 @@
         <v>218630</v>
       </c>
       <c r="D2" s="1">
-        <v>500</v>
+        <v>567</v>
       </c>
       <c r="E2" s="1">
-        <v>50</v>
+        <v>89</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>4</v>

--- a/Data Files/Members_Payment_Data.xlsx
+++ b/Data Files/Members_Payment_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\davidho\Katalon Studio\Start\Data Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A4B4752-745E-4E6F-8071-091D10C822F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20A5AF2D-9CCA-4CB8-A5D2-D3EDE816C6F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3810" yWindow="3375" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -451,10 +451,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R3"/>
+  <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -580,9 +580,6 @@
         <v>123</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
-      <c r="G3" s="2"/>
-    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="J2" r:id="rId1" xr:uid="{966902DC-B63A-4C97-9FA4-9C4B209FE628}"/>
